--- a/02_Inventory/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/02_Inventory/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A82AA0E-A0C3-4E88-8A97-F469E3346AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABAB93F-2B87-4F8B-A5A3-880CDE06D3E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -202,13 +202,7 @@
     <t>output data</t>
   </si>
   <si>
-    <t>titlu is String</t>
-  </si>
-  <si>
     <t>expected</t>
-  </si>
-  <si>
-    <t>titlu not String</t>
   </si>
   <si>
     <t>2,3,2</t>
@@ -432,9 +426,6 @@
     <t>CompanyA</t>
   </si>
   <si>
-    <t>part added</t>
-  </si>
-  <si>
     <t>2, 3, 5</t>
   </si>
   <si>
@@ -487,28 +478,7 @@
     <t>F01a. adăugarea unei OutsourcedPart (String name, double price, int inStock, int min, int  max, String partDynamicValue);</t>
   </si>
   <si>
-    <t>name is String, length in [1,255]</t>
-  </si>
-  <si>
-    <t>01. name = "", length = 0</t>
-  </si>
-  <si>
-    <t>02. name = ?, length = -1</t>
-  </si>
-  <si>
     <t>08. price = 0</t>
-  </si>
-  <si>
-    <t>03. name = "P", length = 1</t>
-  </si>
-  <si>
-    <t>04. name = "P…1", length = 255</t>
-  </si>
-  <si>
-    <t>05. name = "Part…11", length = 254</t>
-  </si>
-  <si>
-    <t>06. name = "Part…111", length = 256</t>
   </si>
   <si>
     <t>Compiler error</t>
@@ -597,6 +567,33 @@
   </si>
   <si>
     <t>09. price = 0.01</t>
+  </si>
+  <si>
+    <t>name.length in [1,255]</t>
+  </si>
+  <si>
+    <t>name not String</t>
+  </si>
+  <si>
+    <t>03.  length = 1</t>
+  </si>
+  <si>
+    <t>02.  length = -1</t>
+  </si>
+  <si>
+    <t>01.  length = 0</t>
+  </si>
+  <si>
+    <t>04.  length = 255</t>
+  </si>
+  <si>
+    <t>05.  length = 254</t>
+  </si>
+  <si>
+    <t>06. length = 256</t>
+  </si>
+  <si>
+    <t>exception not thrown</t>
   </si>
 </sst>
 </file>
@@ -1412,17 +1409,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1430,12 +1445,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,18 +1462,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1472,23 +1469,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1505,20 +1517,80 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1526,12 +1598,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,75 +1627,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2034,7 +2031,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J4" s="2">
         <v>235</v>
@@ -2091,7 +2088,7 @@
         <v>6</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J5" s="2">
         <v>235</v>
@@ -2103,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J6" s="2">
         <v>232</v>
@@ -2144,7 +2141,7 @@
     </row>
     <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="64" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
@@ -2163,7 +2160,7 @@
     </row>
     <row r="16" spans="2:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="64"/>
@@ -2187,22 +2184,22 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2273,8 +2270,8 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,37 +2301,37 @@
       <c r="E1" s="62"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="B3" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="G5" s="88" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="G5" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
@@ -2349,80 +2346,80 @@
       <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="73" t="s">
+      <c r="I6" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="77" t="s">
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="77"/>
+      <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="85" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="N7" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="78"/>
+      <c r="P7" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="74"/>
-      <c r="P7" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="74"/>
+      <c r="Q7" s="78"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J8" s="2">
         <v>5.5</v>
@@ -2436,36 +2433,36 @@
       <c r="M8" s="2">
         <v>20</v>
       </c>
-      <c r="N8" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="72"/>
+      <c r="N8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="65" t="s">
-        <v>75</v>
+      <c r="C9" s="85" t="s">
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="14">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J9" s="2">
         <v>10.33</v>
@@ -2479,37 +2476,37 @@
       <c r="M9" s="2">
         <v>20</v>
       </c>
-      <c r="N9" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="72"/>
+      <c r="N9" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q9" s="67"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="42">
         <v>3</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K10" s="21">
         <v>10</v>
@@ -2520,34 +2517,34 @@
       <c r="M10" s="21">
         <v>20</v>
       </c>
-      <c r="N10" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="82"/>
+      <c r="N10" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" s="72"/>
+      <c r="P10" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10" s="72"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>77</v>
+      <c r="C11" s="85" t="s">
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="42">
         <v>4</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J11" s="21">
         <v>-0.89</v>
@@ -2561,23 +2558,23 @@
       <c r="M11" s="21">
         <v>20</v>
       </c>
-      <c r="N11" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="O11" s="82"/>
-      <c r="P11" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q11" s="82"/>
+      <c r="N11" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" s="72"/>
+      <c r="P11" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="72"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G12" s="9">
         <v>5</v>
@@ -2590,14 +2587,14 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="80"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="74"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="G13" s="9">
@@ -2609,16 +2606,16 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="80"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="87"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="G14" s="13">
@@ -2632,14 +2629,14 @@
       <c r="M14" s="12"/>
       <c r="N14" s="83"/>
       <c r="O14" s="84"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="G15" s="13">
@@ -2651,16 +2648,16 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="65"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="G16" s="13"/>
@@ -2670,16 +2667,16 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="70"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="65"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="G17" s="13"/>
@@ -2689,16 +2686,16 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="70"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="G18" s="13"/>
@@ -2708,16 +2705,16 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="69"/>
-      <c r="Q18" s="70"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="G19" s="14"/>
@@ -2727,28 +2724,53 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="70"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="76"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+        <v>31</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
@@ -2765,31 +2787,6 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2803,7 +2800,7 @@
   <dimension ref="B1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,7 +2833,7 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
@@ -2849,105 +2846,105 @@
       <c r="K3" s="40"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="B5" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="3"/>
-      <c r="G5" s="88" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
+      <c r="G5" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
     </row>
     <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="J6" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="K6" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="93"/>
+      <c r="Q6" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="93"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="86">
+        <v>1</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="98" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="100"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="99"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="66">
-        <v>1</v>
-      </c>
-      <c r="C7" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="74"/>
+      <c r="R7" s="78"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="91"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G8" s="42">
         <v>1</v>
@@ -2957,10 +2954,10 @@
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L8" s="21">
         <v>5.5</v>
@@ -2975,18 +2972,18 @@
         <v>20</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="72"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="91"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="G9" s="42">
         <v>2</v>
@@ -3010,18 +3007,18 @@
         <v>20</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="81" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="72"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="91"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="G10" s="42">
         <v>3</v>
@@ -3032,7 +3029,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="20" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L10" s="21">
         <v>9.99</v>
@@ -3047,18 +3044,18 @@
         <v>20</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R10" s="72"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="91"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="2" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="G11" s="42">
         <v>4</v>
@@ -3069,7 +3066,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="45" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L11" s="21">
         <v>1.47</v>
@@ -3084,18 +3081,18 @@
         <v>20</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R11" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q11" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R11" s="72"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="67"/>
-      <c r="C12" s="94"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G12" s="42">
         <v>5</v>
@@ -3106,7 +3103,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="20" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L12" s="21">
         <v>11</v>
@@ -3121,22 +3118,22 @@
         <v>20</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R12" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q12" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="72"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="66">
+      <c r="B13" s="86">
         <v>2</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>75</v>
+      <c r="C13" s="86" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G13" s="42">
         <v>6</v>
@@ -3146,10 +3143,10 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L13" s="21">
         <v>21</v>
@@ -3164,18 +3161,18 @@
         <v>20</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="R13" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q13" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="72"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G14" s="14">
         <v>7</v>
@@ -3186,7 +3183,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L14" s="21">
         <v>-1.99</v>
@@ -3201,18 +3198,18 @@
         <v>20</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="R14" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q14" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="72"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G15" s="14">
         <v>8</v>
@@ -3223,7 +3220,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L15" s="21">
         <v>0</v>
@@ -3238,18 +3235,18 @@
         <v>20</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q15" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="R15" s="72"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="66">
+      <c r="B16" s="86">
         <v>3</v>
       </c>
-      <c r="C16" s="92"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="2"/>
       <c r="G16" s="14">
         <v>12</v>
@@ -3260,7 +3257,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L16" s="21">
         <v>5</v>
@@ -3275,16 +3272,16 @@
         <v>20</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="R16" s="82"/>
+        <v>83</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="R16" s="72"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="91"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="2"/>
       <c r="G17" s="14">
         <v>13</v>
@@ -3298,12 +3295,12 @@
       <c r="N17" s="21"/>
       <c r="O17" s="21"/>
       <c r="P17" s="21"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="82"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="72"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="91"/>
-      <c r="C18" s="93"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="98"/>
       <c r="D18" s="2"/>
       <c r="G18" s="14">
         <v>14</v>
@@ -3317,12 +3314,12 @@
       <c r="N18" s="21"/>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="82"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="72"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="91"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="2"/>
       <c r="G19" s="14">
         <v>15</v>
@@ -3336,12 +3333,12 @@
       <c r="N19" s="21"/>
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="82"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="72"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="91"/>
-      <c r="C20" s="93"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="98"/>
       <c r="D20" s="2"/>
       <c r="G20" s="14">
         <v>16</v>
@@ -3355,12 +3352,12 @@
       <c r="N20" s="21"/>
       <c r="O20" s="21"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="82"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="72"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="67"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="99"/>
       <c r="D21" s="2"/>
       <c r="G21" s="14">
         <v>17</v>
@@ -3374,14 +3371,14 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="82"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="72"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="66">
+      <c r="B22" s="86">
         <v>4</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="97"/>
       <c r="D22" s="2"/>
       <c r="G22" s="14">
         <v>18</v>
@@ -3395,70 +3392,50 @@
       <c r="N22" s="21"/>
       <c r="O22" s="21"/>
       <c r="P22" s="21"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="82"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="72"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="91"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="98"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="91"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="98"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="91"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="98"/>
       <c r="D25" s="2"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
       <c r="N25" s="29"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="91"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="98"/>
       <c r="D26" s="2"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="30"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="67"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="99"/>
       <c r="D27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="I25:M25"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -3475,6 +3452,26 @@
     <mergeCell ref="G5:R5"/>
     <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="I25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3489,8 +3486,8 @@
   </sheetPr>
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3514,95 +3511,95 @@
       <c r="E1" s="62"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+      <c r="D4" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="E4" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="F4" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="81"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="123"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="128" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="129"/>
+      <c r="M5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="E4" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="77"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="106"/>
-      <c r="M5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="116" t="s">
-        <v>49</v>
+      <c r="C6" s="121" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G6" s="52">
         <v>10</v>
@@ -3616,17 +3613,17 @@
       <c r="J6" s="52">
         <v>20</v>
       </c>
-      <c r="K6" s="107" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="108" t="s">
-        <v>27</v>
+      <c r="K6" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="131" t="s">
+        <v>25</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N6" s="47" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -3634,15 +3631,15 @@
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="48" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" s="51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="51">
         <v>11</v>
@@ -3656,15 +3653,15 @@
       <c r="J7" s="51">
         <v>20</v>
       </c>
-      <c r="K7" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" s="110"/>
+      <c r="K7" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="133"/>
       <c r="M7" s="51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N7" s="42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -3672,15 +3669,15 @@
         <f t="shared" ref="B8:B12" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="116"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G8" s="51">
         <v>15.6</v>
@@ -3694,15 +3691,15 @@
       <c r="J8" s="51">
         <v>20</v>
       </c>
-      <c r="K8" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L8" s="110"/>
+      <c r="K8" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="133"/>
       <c r="M8" s="51" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N8" s="42" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -3710,15 +3707,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="48" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G9" s="42">
         <v>-11</v>
@@ -3732,15 +3729,15 @@
       <c r="J9" s="42">
         <v>20</v>
       </c>
-      <c r="K9" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="L9" s="104"/>
+      <c r="K9" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="119"/>
       <c r="M9" s="42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N9" s="42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -3748,15 +3745,15 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="116"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G10" s="51">
         <v>0</v>
@@ -3770,15 +3767,15 @@
       <c r="J10" s="51">
         <v>20</v>
       </c>
-      <c r="K10" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" s="110"/>
+      <c r="K10" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="133"/>
       <c r="M10" s="51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N10" s="42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -3786,15 +3783,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="121"/>
       <c r="D11" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F11" s="51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G11" s="51">
         <v>-1.5</v>
@@ -3808,15 +3805,15 @@
       <c r="J11" s="51">
         <v>20</v>
       </c>
-      <c r="K11" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" s="104"/>
+      <c r="K11" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="119"/>
       <c r="M11" s="51" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N11" s="42" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -3824,15 +3821,15 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="116"/>
+      <c r="C12" s="121"/>
       <c r="D12" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G12" s="51">
         <v>0.01</v>
@@ -3846,28 +3843,28 @@
       <c r="J12" s="42">
         <v>20</v>
       </c>
-      <c r="K12" s="109" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="110"/>
+      <c r="K12" s="132" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="133"/>
       <c r="M12" s="51" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N12" s="42" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="53"/>
-      <c r="C13" s="116"/>
+      <c r="C13" s="121"/>
       <c r="D13" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G13" s="55">
         <v>5.5</v>
@@ -3881,28 +3878,28 @@
       <c r="J13" s="51">
         <v>20</v>
       </c>
-      <c r="K13" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="104"/>
+      <c r="K13" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="119"/>
       <c r="M13" s="55" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N13" s="54" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="53"/>
-      <c r="C14" s="116"/>
+      <c r="C14" s="121"/>
       <c r="D14" s="48" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F14" s="57" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G14" s="57">
         <v>5.5</v>
@@ -3916,15 +3913,15 @@
       <c r="J14" s="58">
         <v>20</v>
       </c>
-      <c r="K14" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="L14" s="102"/>
+      <c r="K14" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="127"/>
       <c r="M14" s="57" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="N14" s="56" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3932,15 +3929,15 @@
         <f>B12+1</f>
         <v>8</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="49" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G15" s="50">
         <v>5.5</v>
@@ -3954,15 +3951,15 @@
       <c r="J15" s="42">
         <v>20</v>
       </c>
-      <c r="K15" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="L15" s="104"/>
+      <c r="K15" s="118" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="119"/>
       <c r="M15" s="50" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N15" s="50" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3982,7 +3979,7 @@
     </row>
     <row r="17" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -3992,102 +3989,102 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="25" t="s">
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="127" t="s">
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="106"/>
+    </row>
+    <row r="20" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="130"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="127" t="s">
+      <c r="D20" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="N19" s="130"/>
-      <c r="O19" s="128"/>
-      <c r="P19" s="129"/>
-    </row>
-    <row r="20" spans="2:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="123" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="124" t="s">
+      <c r="E20" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="F20" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="125" t="s">
+      <c r="G20" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="126" t="s">
+      <c r="H20" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="132"/>
-      <c r="J20" s="125" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="126" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="125" t="s">
+      <c r="M20" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="O20" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="125" t="s">
-        <v>61</v>
-      </c>
-      <c r="P20" s="126" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="123"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="101"/>
+      <c r="O21" s="101"/>
+      <c r="P21" s="102"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="24">
         <v>10</v>
@@ -4104,10 +4101,10 @@
       <c r="G22" s="32">
         <v>1</v>
       </c>
-      <c r="H22" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="122"/>
+      <c r="H22" s="114" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="115"/>
       <c r="J22" s="2">
         <v>1</v>
       </c>
@@ -4118,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N22" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O22" s="26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="P22" s="27">
         <v>0</v>
@@ -4135,30 +4132,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="M19:P19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="M4:N4"/>
@@ -4174,6 +4147,30 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4183,6 +4180,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058284A30843C9F43BD758DDD8294D484" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d50638930d08c51b5585735b2be047e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fed1744a-f275-4023-9290-77fd546fd730" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4acb07121b76573bb3c966f3dcb1b903" ns2:_="">
     <xsd:import namespace="fed1744a-f275-4023-9290-77fd546fd730"/>
@@ -4326,22 +4338,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EFF49E-866D-4BFD-B7FD-9BB436667B53}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4357,21 +4371,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC1EB47-4FFF-47F3-894F-DED91590EA19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF0EB622-FDCF-4321-9FF5-C0B282D1670E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>